--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1308,7 +1308,7 @@
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1341,7 +1341,7 @@
         <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
@@ -1374,13 +1374,13 @@
         <v>7</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1425,10 +1425,10 @@
         <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
         <v>126</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1714,10 +1714,10 @@
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1735,19 +1735,19 @@
         <v>81</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>51</v>
@@ -1765,7 +1765,7 @@
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>81</v>
@@ -1786,7 +1786,7 @@
         <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
@@ -2215,28 +2215,28 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
         <v>1.53</v>
@@ -2251,13 +2251,13 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
         <v>34</v>
@@ -2269,7 +2269,7 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2284,10 +2284,10 @@
         <v>6.5</v>
       </c>
       <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>10</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>21</v>
@@ -2299,7 +2299,7 @@
         <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AN10" t="n">
         <v>5</v>
@@ -2323,7 +2323,7 @@
         <v>2.38</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
@@ -2436,7 +2436,7 @@
         <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
@@ -2460,19 +2460,19 @@
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
         <v>8.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
         <v>34</v>
@@ -2484,7 +2484,7 @@
         <v>1250</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
         <v>2.88</v>
@@ -2233,10 +2233,10 @@
         <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>1.53</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -2436,13 +2436,13 @@
         <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
@@ -2460,19 +2460,19 @@
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="n">
         <v>34</v>
@@ -2484,7 +2484,7 @@
         <v>1250</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
@@ -2496,7 +2496,7 @@
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
         <v>251</v>
@@ -2511,7 +2511,7 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
         <v>21</v>
@@ -2520,7 +2520,7 @@
         <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -932,7 +932,7 @@
         <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -995,13 +995,13 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1025,7 +1025,7 @@
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN3" t="n">
         <v>3.6</v>
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.73</v>
@@ -1153,10 +1153,10 @@
         <v>2.05</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
@@ -1168,10 +1168,10 @@
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
@@ -1189,7 +1189,7 @@
         <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH4" t="n">
         <v>15</v>
@@ -1240,13 +1240,13 @@
         <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.88</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>3.5</v>
@@ -1669,28 +1669,28 @@
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
         <v>1.62</v>
@@ -1699,10 +1699,10 @@
         <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1786,7 +1786,7 @@
         <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.25</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,22 +1881,22 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
@@ -1908,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1917,10 +1917,10 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
         <v>17</v>
@@ -1938,16 +1938,16 @@
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
         <v>29</v>
@@ -1980,7 +1980,7 @@
         <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
@@ -2215,10 +2215,10 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2227,16 +2227,16 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
         <v>1.53</v>
@@ -2251,13 +2251,13 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
         <v>34</v>
@@ -2269,7 +2269,7 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2284,10 +2284,10 @@
         <v>6.5</v>
       </c>
       <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>10</v>
       </c>
       <c r="AJ10" t="n">
         <v>21</v>
@@ -2323,7 +2323,7 @@
         <v>2.38</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -2433,10 +2433,10 @@
         <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>9.5</v>
@@ -2466,10 +2466,10 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -2487,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2523,7 +2523,7 @@
         <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
         <v>301</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lbpiCSt4</t>
+          <t>hCSr7pE1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,131 +728,131 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
         <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP2" t="n">
         <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -861,39 +861,221 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lbpiCSt4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fenix</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
         <v>201</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT3" t="n">
         <v>2.5</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU3" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV3" t="n">
         <v>67</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW3" t="n">
         <v>4.75</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX3" t="n">
         <v>17</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY3" t="n">
         <v>29</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ3" t="n">
         <v>51</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA3" t="n">
         <v>81</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB3" t="n">
         <v>251</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD3" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -789,16 +789,16 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -819,7 +819,7 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
@@ -995,10 +995,10 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1007,16 +1007,16 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
@@ -1052,16 +1052,16 @@
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>51</v>
@@ -1070,7 +1070,7 @@
         <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -977,13 +977,13 @@
         <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>26</v>
@@ -998,7 +998,7 @@
         <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1028,13 +1028,13 @@
         <v>351</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -953,16 +953,16 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -813,10 +813,10 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -834,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -867,7 +867,7 @@
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -1076,6 +1076,188 @@
         <v>51</v>
       </c>
       <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>M5Xw3O3j</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -789,22 +789,22 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>23</v>
@@ -819,16 +819,16 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -837,7 +837,7 @@
         <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -867,7 +867,7 @@
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -885,7 +885,7 @@
         <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lbpiCSt4</t>
+          <t>zyYw8Qbe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,47 +910,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,76 +971,76 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP3" t="n">
         <v>23</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AQ3" t="n">
         <v>34</v>
       </c>
-      <c r="AM3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1049,40 +1049,40 @@
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M5Xw3O3j</t>
+          <t>2NZV9nUr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,172 +1092,536 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.05</v>
       </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
         <v>34</v>
       </c>
-      <c r="AA4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
         <v>101</v>
       </c>
       <c r="AS4" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA4" t="n">
         <v>251</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="BB4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>lbpiCSt4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fenix</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.5</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="U5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>M5Xw3O3j</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>67</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AR6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
         <v>4.33</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX6" t="n">
         <v>13</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY6" t="n">
         <v>26</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ6" t="n">
         <v>41</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA6" t="n">
         <v>67</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB6" t="n">
         <v>201</v>
       </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1126,7 +1126,7 @@
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.14</v>
@@ -1135,10 +1135,10 @@
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
         <v>3.4</v>
@@ -1162,7 +1162,7 @@
         <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1183,13 +1183,13 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
         <v>126</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1213,13 +1213,13 @@
         <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>101</v>
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV4" t="n">
         <v>101</v>
@@ -1246,7 +1246,7 @@
         <v>51</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1499,16 +1499,16 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -765,13 +765,13 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P2" t="n">
         <v>2.5</v>
@@ -783,7 +783,7 @@
         <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T2" t="n">
         <v>2.25</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
@@ -944,7 +944,7 @@
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -1016,7 +1016,7 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1040,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1052,7 +1052,7 @@
         <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>6.5</v>
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
         <v>3.1</v>
@@ -765,55 +765,55 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,10 +822,10 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
@@ -852,28 +852,28 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
         <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -783,10 +783,10 @@
         <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1114,13 +1114,13 @@
         <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
         <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1147,10 +1147,10 @@
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
         <v>2.63</v>
@@ -1183,7 +1183,7 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
         <v>126</v>
@@ -1210,7 +1210,7 @@
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1231,13 +1231,13 @@
         <v>2</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lbpiCSt4</t>
+          <t>nyeDPXV6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,77 +1274,77 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.25</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1353,100 +1353,100 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
         <v>51</v>
       </c>
-      <c r="AG5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
       <c r="AM5" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
       </c>
       <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
         <v>81</v>
       </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC5" t="n">
         <v>81</v>
       </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M5Xw3O3j</t>
+          <t>lbpiCSt4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,31 +1466,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1523,25 +1523,25 @@
         <v>1.8</v>
       </c>
       <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1553,19 +1553,19 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
         <v>10</v>
       </c>
-      <c r="AI6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>34</v>
@@ -1574,22 +1574,22 @@
         <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.5</v>
@@ -1598,22 +1598,22 @@
         <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
         <v>201</v>
@@ -1622,6 +1622,188 @@
         <v>51</v>
       </c>
       <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>M5Xw3O3j</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1147,10 +1147,10 @@
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U4" t="n">
         <v>2.63</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1311,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.62</v>
@@ -1329,19 +1329,19 @@
         <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
@@ -1353,13 +1353,13 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1410,25 +1410,25 @@
         <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,13 +798,13 @@
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -837,7 +837,7 @@
         <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nyeDPXV6</t>
+          <t>K4udGliF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,59 +1274,59 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>1.67</v>
@@ -1335,25 +1335,25 @@
         <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
         <v>10</v>
       </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1371,19 +1371,19 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1392,10 +1392,10 @@
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>34</v>
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1431,22 +1431,22 @@
         <v>81</v>
       </c>
       <c r="BA5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>451</v>
+      </c>
+      <c r="BC5" t="n">
         <v>126</v>
       </c>
-      <c r="BB5" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lbpiCSt4</t>
+          <t>W2Rn64T7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,128 +1456,128 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.6</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.25</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
         <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
@@ -1589,46 +1589,46 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M5Xw3O3j</t>
+          <t>nyeDPXV6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,83 +1638,83 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L7" t="n">
         <v>4</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.36</v>
       </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
         <v>29</v>
@@ -1723,87 +1723,633 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AP7" t="n">
         <v>34</v>
       </c>
-      <c r="AM7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>101</v>
       </c>
       <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lbpiCSt4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fenix</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>M5Xw3O3j</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
         <v>251</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT9" t="n">
         <v>2.5</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV9" t="n">
         <v>67</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW9" t="n">
         <v>4.33</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX9" t="n">
         <v>13</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY9" t="n">
         <v>26</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ9" t="n">
         <v>41</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA9" t="n">
         <v>67</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB9" t="n">
         <v>201</v>
       </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
+      <c r="BC9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ADYaA6BG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -762,13 +762,13 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -789,22 +789,22 @@
         <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -837,7 +837,7 @@
         <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -1675,10 +1675,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.62</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lbpiCSt4</t>
+          <t>rNtoHigg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R8" t="n">
         <v>2</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA8" t="n">
         <v>12</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
         <v>11</v>
       </c>
-      <c r="Z8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AD8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI8" t="n">
         <v>23</v>
       </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
         <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC8" t="n">
         <v>81</v>
       </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
+      <c r="BD8" t="n">
         <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M5Xw3O3j</t>
+          <t>lbpiCSt4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,31 +2012,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2045,16 +2045,16 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2069,25 +2069,25 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2099,19 +2099,19 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
         <v>10</v>
       </c>
-      <c r="AI9" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -2120,22 +2120,22 @@
         <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
         <v>2.5</v>
@@ -2144,22 +2144,22 @@
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ADYaA6BG</t>
+          <t>M5Xw3O3j</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,37 +2194,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2245,31 +2245,31 @@
         <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2281,75 +2281,257 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH10" t="n">
         <v>10</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>19</v>
       </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
         <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ADYaA6BG</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX11" t="n">
         <v>23</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY11" t="n">
         <v>34</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ11" t="n">
         <v>81</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA11" t="n">
         <v>126</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB11" t="n">
         <v>301</v>
       </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1675,10 +1675,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.62</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1675,10 +1675,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.62</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
         <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1920,10 +1920,10 @@
         <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
         <v>81</v>
@@ -1938,7 +1938,7 @@
         <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
         <v>7</v>
@@ -1959,13 +1959,13 @@
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H8" t="n">
         <v>4.33</v>
@@ -1854,7 +1854,7 @@
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1899,7 +1899,7 @@
         <v>9.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
         <v>29</v>
@@ -1908,10 +1908,10 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1968,7 +1968,7 @@
         <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1980,7 +1980,7 @@
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1147,10 +1147,10 @@
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
         <v>2.63</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -759,7 +759,7 @@
         <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L2" t="n">
         <v>3.75</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1123,7 +1123,7 @@
         <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1147,10 +1147,10 @@
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U4" t="n">
         <v>2.63</v>
@@ -1305,7 +1305,7 @@
         <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
         <v>4.5</v>
@@ -1487,7 +1487,7 @@
         <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L6" t="n">
         <v>4.33</v>
@@ -1675,13 +1675,13 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P7" t="n">
         <v>2.2</v>
@@ -1857,13 +1857,13 @@
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -759,7 +759,7 @@
         <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
         <v>3.75</v>
@@ -1123,7 +1123,7 @@
         <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1147,10 +1147,10 @@
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
         <v>2.63</v>
@@ -1305,7 +1305,7 @@
         <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
         <v>4.5</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
         <v>2.88</v>
@@ -1487,7 +1487,7 @@
         <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
         <v>4.33</v>
@@ -1499,16 +1499,16 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1675,13 +1675,13 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
         <v>2.2</v>
@@ -1857,13 +1857,13 @@
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2427,16 +2427,16 @@
         <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2451,13 +2451,13 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
@@ -2475,22 +2475,22 @@
         <v>41</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
@@ -2505,7 +2505,7 @@
         <v>2.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
@@ -2514,7 +2514,7 @@
         <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>34</v>
@@ -2523,10 +2523,10 @@
         <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1675,10 +1675,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.62</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2024,10 +2024,10 @@
         <v>2.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -2036,13 +2036,13 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -2069,7 +2069,7 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -2087,7 +2087,7 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2105,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>26</v>
@@ -2120,10 +2120,10 @@
         <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2135,7 +2135,7 @@
         <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
         <v>2.5</v>
@@ -2144,7 +2144,7 @@
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
         <v>4.5</v>
@@ -2153,7 +2153,7 @@
         <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
@@ -2162,7 +2162,7 @@
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -750,7 +750,7 @@
         <v>2.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -771,28 +771,28 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -807,13 +807,13 @@
         <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>7</v>
@@ -843,34 +843,34 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>4.75</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1147,10 +1147,10 @@
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U4" t="n">
         <v>2.63</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
         <v>4.33</v>
@@ -1848,19 +1848,19 @@
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1887,19 +1887,19 @@
         <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>9.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
         <v>29</v>
@@ -1908,10 +1908,10 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1968,7 +1968,7 @@
         <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1980,7 +1980,7 @@
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -765,10 +765,10 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.4</v>
@@ -944,13 +944,13 @@
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -1016,7 +1016,7 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1040,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1052,7 +1052,7 @@
         <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -953,16 +953,16 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1004,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -1016,7 +1016,7 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1043,7 +1043,7 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
@@ -1052,13 +1052,13 @@
         <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1070,7 +1070,7 @@
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -2027,7 +2027,7 @@
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2078,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
         <v>23</v>
@@ -2105,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
         <v>26</v>
@@ -2120,10 +2120,10 @@
         <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1129,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
@@ -1311,16 +1311,16 @@
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.88</v>
@@ -1493,16 +1493,16 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q6" t="n">
         <v>2.7</v>
@@ -1675,13 +1675,13 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P7" t="n">
         <v>2.2</v>
@@ -1857,22 +1857,22 @@
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2236,7 +2236,7 @@
         <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2418,7 +2418,7 @@
         <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
         <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,13 +971,13 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
@@ -989,13 +989,13 @@
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1004,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -1016,22 +1016,22 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN3" t="n">
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1040,37 +1040,37 @@
         <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1129,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
@@ -1311,16 +1311,16 @@
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
         <v>2.88</v>
@@ -1493,16 +1493,16 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
         <v>2.7</v>
@@ -1675,13 +1675,13 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
         <v>2.2</v>
@@ -1857,22 +1857,22 @@
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2236,7 +2236,7 @@
         <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2418,7 +2418,7 @@
         <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -813,19 +813,19 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
@@ -834,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -846,7 +846,7 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -861,7 +861,7 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -876,7 +876,7 @@
         <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1129,16 +1129,16 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
         <v>3.4</v>
@@ -1162,7 +1162,7 @@
         <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1177,10 +1177,10 @@
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>26</v>
@@ -1189,7 +1189,7 @@
         <v>126</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1210,10 +1210,10 @@
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1237,7 +1237,7 @@
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1308,31 +1308,31 @@
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.62</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>2.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.1</v>
       </c>
       <c r="U5" t="n">
         <v>2.25</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
@@ -1383,7 +1383,7 @@
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1398,22 +1398,22 @@
         <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1431,10 +1431,10 @@
         <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
@@ -1129,28 +1129,28 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.73</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.05</v>
       </c>
       <c r="U4" t="n">
         <v>2.63</v>
@@ -1162,7 +1162,7 @@
         <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1180,7 +1180,7 @@
         <v>4.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>26</v>
@@ -1192,7 +1192,7 @@
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1213,7 +1213,7 @@
         <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV4" t="n">
         <v>101</v>
@@ -1293,34 +1293,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1335,10 +1335,10 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
         <v>2.2</v>
@@ -1419,10 +1419,10 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -2039,10 +2039,10 @@
         <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2400,7 +2400,7 @@
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2436,7 +2436,7 @@
         <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2466,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2514,7 +2514,7 @@
         <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
         <v>34</v>
@@ -2526,7 +2526,7 @@
         <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -777,10 +777,10 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -932,13 +932,13 @@
         <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -965,25 +965,25 @@
         <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
@@ -1001,7 +1001,7 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1013,7 +1013,7 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -1025,13 +1025,13 @@
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1073,7 +1073,7 @@
         <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1147,25 +1147,25 @@
         <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>17</v>
@@ -1174,25 +1174,25 @@
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1222,16 +1222,16 @@
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
         <v>101</v>
@@ -1240,16 +1240,16 @@
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
         <v>4.33</v>
@@ -1860,7 +1860,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1905,13 +1905,13 @@
         <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
         <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1962,13 +1962,13 @@
         <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1980,7 +1980,7 @@
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -2403,10 +2403,10 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1675,10 +1675,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.62</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1881,40 +1881,40 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
         <v>17</v>
@@ -1923,31 +1923,31 @@
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN8" t="n">
         <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX8" t="n">
         <v>34</v>
@@ -1974,7 +1974,7 @@
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1675,16 +1675,16 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
         <v>3.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -777,10 +777,10 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.1</v>
@@ -1308,13 +1308,13 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1335,10 +1335,10 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1374,7 +1374,7 @@
         <v>7.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -1383,7 +1383,7 @@
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
@@ -1511,16 +1511,16 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1550,10 +1550,10 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>201</v>
@@ -1577,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
@@ -1592,7 +1592,7 @@
         <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>
@@ -1616,7 +1616,7 @@
         <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -2039,10 +2039,10 @@
         <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1305,22 +1305,22 @@
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1431,10 +1431,10 @@
         <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1896,7 +1896,7 @@
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
@@ -1908,10 +1908,10 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1938,7 +1938,7 @@
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
         <v>7.5</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -2251,7 +2251,7 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -2293,7 +2293,7 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
@@ -2329,7 +2329,7 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -938,7 +938,7 @@
         <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -995,13 +995,13 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1025,13 +1025,13 @@
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1484,7 +1484,7 @@
         <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
@@ -1493,10 +1493,10 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1616,7 +1616,7 @@
         <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1681,10 +1681,10 @@
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
         <v>3.1</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
         <v>2.1</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1881,16 +1881,16 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
@@ -1917,10 +1917,10 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
         <v>19</v>
@@ -1932,7 +1932,7 @@
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
         <v>301</v>
@@ -1941,7 +1941,7 @@
         <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
@@ -1959,28 +1959,28 @@
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY8" t="n">
         <v>34</v>
       </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA8" t="n">
         <v>126</v>
       </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2075,10 +2075,10 @@
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
         <v>23</v>
@@ -2105,10 +2105,10 @@
         <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -2120,10 +2120,10 @@
         <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2147,10 +2147,10 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -795,19 +795,19 @@
         <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="n">
         <v>26</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -825,19 +825,19 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -858,10 +858,10 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -873,16 +873,16 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1511,7 +1511,7 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T6" t="n">
         <v>2.2</v>
@@ -1693,7 +1693,7 @@
         <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T7" t="n">
         <v>2.1</v>
@@ -1705,13 +1705,13 @@
         <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
         <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>26</v>
@@ -1732,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
         <v>6.5</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -1857,10 +1857,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1875,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
         <v>3</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX8" t="n">
         <v>29</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2102,7 +2102,7 @@
         <v>7.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>11</v>
@@ -2111,10 +2111,10 @@
         <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
         <v>351</v>
@@ -2135,7 +2135,7 @@
         <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -834,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>26</v>
@@ -846,7 +846,7 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -885,7 +885,7 @@
         <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>301</v>
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1493,10 +1493,10 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1511,7 +1511,7 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
         <v>2.2</v>
@@ -1693,7 +1693,7 @@
         <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
         <v>2.1</v>
@@ -1875,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
         <v>3</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -2251,7 +2251,7 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -2293,7 +2293,7 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
@@ -2329,7 +2329,7 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
         <v>13</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2436,16 +2436,16 @@
         <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2466,10 +2466,10 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -2487,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2514,19 +2514,19 @@
         <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
         <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L2" t="n">
         <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -777,16 +777,16 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
         <v>2.05</v>
@@ -795,19 +795,19 @@
         <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y2" t="n">
         <v>13</v>
       </c>
-      <c r="Y2" t="n">
-        <v>11</v>
-      </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -819,25 +819,25 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -846,16 +846,16 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
         <v>101</v>
@@ -864,7 +864,7 @@
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -873,28 +873,28 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lbpiCSt4</t>
+          <t>M5Xw3O3j</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,49 +2012,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2069,22 +2069,22 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
         <v>12</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -2099,43 +2099,43 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
         <v>2.5</v>
@@ -2147,22 +2147,22 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M5Xw3O3j</t>
+          <t>ADYaA6BG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,37 +2194,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2251,22 +2251,22 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
         <v>34</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
       </c>
       <c r="AC10" t="n">
         <v>8</v>
@@ -2275,49 +2275,49 @@
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
         <v>67</v>
       </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>2.5</v>
@@ -2329,209 +2329,27 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ADYaA6BG</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>18/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -1007,10 +1007,10 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -1028,10 +1028,10 @@
         <v>451</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
@@ -1153,10 +1153,10 @@
         <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
         <v>4.75</v>
@@ -1180,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1305,7 +1305,7 @@
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>4.5</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1431,10 +1431,10 @@
         <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -2212,7 +2212,7 @@
         <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hCSr7pE1</t>
+          <t>zyYw8Qbe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,133 +738,133 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.44</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
         <v>8</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
         <v>15</v>
       </c>
-      <c r="Y2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>41</v>
-      </c>
       <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
         <v>34</v>
       </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>501</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>34</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>67</v>
-      </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -873,22 +873,22 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zyYw8Qbe</t>
+          <t>2NZV9nUr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,142 +920,142 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.36</v>
       </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.67</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.44</v>
       </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>19</v>
       </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>51</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>451</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
         <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>29</v>
@@ -1064,25 +1064,25 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2NZV9nUr</t>
+          <t>K4udGliF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,73 +1102,73 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
         <v>5.5</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.75</v>
-      </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
@@ -1177,82 +1177,82 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
         <v>51</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA4" t="n">
         <v>126</v>
       </c>
-      <c r="BA4" t="n">
-        <v>201</v>
-      </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K4udGliF</t>
+          <t>W2Rn64T7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,22 +1284,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.1</v>
@@ -1308,13 +1308,13 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1335,16 +1335,16 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1365,37 +1365,37 @@
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
       </c>
       <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
         <v>7.5</v>
       </c>
-      <c r="AH5" t="n">
-        <v>17</v>
-      </c>
       <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>41</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
         <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>201</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1419,13 +1419,13 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>81</v>
@@ -1434,7 +1434,7 @@
         <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W2Rn64T7</t>
+          <t>nyeDPXV6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,146 +1456,146 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.53</v>
       </c>
-      <c r="P6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.5</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AI6" t="n">
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>34</v>
       </c>
       <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
         <v>51</v>
       </c>
-      <c r="AM6" t="n">
-        <v>201</v>
-      </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
@@ -1607,7 +1607,7 @@
         <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
         <v>81</v>
@@ -1616,19 +1616,19 @@
         <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nyeDPXV6</t>
+          <t>rNtoHigg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>1.53</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="J7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AO7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>29</v>
       </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>101</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>67</v>
       </c>
       <c r="BA7" t="n">
         <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rNtoHigg</t>
+          <t>M5Xw3O3j</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,95 +1820,95 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J8" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
         <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1917,82 +1917,82 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
         <v>29</v>
       </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="AQ8" t="n">
         <v>67</v>
       </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>23</v>
-      </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="AW8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M5Xw3O3j</t>
+          <t>ADYaA6BG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,37 +2012,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2063,79 +2063,79 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
         <v>34</v>
       </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
         <v>67</v>
       </c>
-      <c r="AR9" t="n">
-        <v>101</v>
-      </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
         <v>2.5</v>
@@ -2147,209 +2147,27 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ADYaA6BG</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>18/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -777,34 +777,34 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -822,13 +822,13 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
         <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -837,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -849,25 +849,25 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -876,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -1129,10 +1129,10 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -765,55 +765,55 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -849,7 +849,7 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -858,13 +858,13 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -929,31 +929,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
         <v>5.5</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P3" t="n">
         <v>2.1</v>
@@ -962,7 +962,7 @@
         <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -977,19 +977,19 @@
         <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1001,10 +1001,10 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1013,7 +1013,7 @@
         <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>19</v>
@@ -1031,7 +1031,7 @@
         <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
@@ -1055,19 +1055,19 @@
         <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -1123,28 +1123,28 @@
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L4" t="n">
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1305,25 +1305,25 @@
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L5" t="n">
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I6" t="n">
         <v>3.2</v>
@@ -1487,19 +1487,19 @@
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L6" t="n">
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P6" t="n">
         <v>2.2</v>
@@ -1508,7 +1508,7 @@
         <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
         <v>1.67</v>
@@ -1660,10 +1660,10 @@
         <v>1.53</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
         <v>2.1</v>
@@ -1699,16 +1699,16 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
@@ -1741,7 +1741,7 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
         <v>19</v>
@@ -1753,13 +1753,13 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
         <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1777,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1786,19 +1786,19 @@
         <v>7.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1839,46 +1839,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
         <v>1.91</v>
@@ -1893,7 +1893,7 @@
         <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
@@ -1905,13 +1905,13 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1920,13 +1920,13 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1944,7 +1944,7 @@
         <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
         <v>67</v>
@@ -1956,7 +1956,7 @@
         <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -1977,10 +1977,10 @@
         <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -747,73 +747,73 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -831,16 +831,16 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -858,13 +858,13 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -885,7 +885,7 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>301</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -941,19 +941,19 @@
         <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
         <v>2.1</v>
@@ -962,7 +962,7 @@
         <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -1123,28 +1123,28 @@
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1305,19 +1305,19 @@
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
         <v>2.5</v>
@@ -1326,7 +1326,7 @@
         <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.62</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
         <v>3.2</v>
@@ -1487,19 +1487,19 @@
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
         <v>2.2</v>
@@ -1508,7 +1508,7 @@
         <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
         <v>1.67</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1920,7 +1920,7 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
         <v>10</v>
@@ -1944,7 +1944,7 @@
         <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>67</v>
@@ -1974,7 +1974,7 @@
         <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.05</v>
       </c>
-      <c r="L2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -798,22 +798,22 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="n">
         <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -825,46 +825,46 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
         <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -873,25 +873,25 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -953,10 +953,10 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
         <v>3.1</v>
@@ -980,7 +980,7 @@
         <v>4.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -1010,25 +1010,25 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
@@ -1311,10 +1311,10 @@
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1478,37 +1478,37 @@
         <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.67</v>
@@ -1517,13 +1517,13 @@
         <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
@@ -1532,10 +1532,10 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
         <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1550,13 +1550,13 @@
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>13</v>
@@ -1595,7 +1595,7 @@
         <v>2.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
@@ -1610,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
         <v>126</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
@@ -1675,10 +1675,10 @@
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1714,7 +1714,7 @@
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
@@ -1726,10 +1726,10 @@
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1756,7 +1756,7 @@
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO7" t="n">
         <v>7.5</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1863,16 +1863,16 @@
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>1.53</v>
@@ -1881,19 +1881,19 @@
         <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
@@ -1908,10 +1908,10 @@
         <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1923,13 +1923,13 @@
         <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>21</v>
@@ -1938,7 +1938,7 @@
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
@@ -1968,10 +1968,10 @@
         <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
@@ -2027,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
         <v>2.88</v>
@@ -2042,19 +2042,19 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2102,7 +2102,7 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -813,10 +813,10 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -828,7 +828,7 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -849,13 +849,13 @@
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -864,13 +864,13 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>6.5</v>
@@ -888,10 +888,10 @@
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -935,10 +935,10 @@
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
@@ -1010,7 +1010,7 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>26</v>
@@ -1055,7 +1055,7 @@
         <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
@@ -1126,7 +1126,7 @@
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1153,10 +1153,10 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1195,7 +1195,7 @@
         <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1204,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1237,10 +1237,10 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
@@ -1317,16 +1317,16 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.62</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1699,13 +1699,13 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
         <v>7</v>
@@ -1717,16 +1717,16 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1735,22 +1735,22 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>51</v>
@@ -1759,13 +1759,13 @@
         <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1783,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
         <v>34</v>
@@ -1792,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
         <v>151</v>
@@ -2045,10 +2045,10 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
         <v>2.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -762,7 +762,7 @@
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
         <v>12</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1490,7 +1490,7 @@
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1517,13 +1517,13 @@
         <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
@@ -1559,7 +1559,7 @@
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1577,7 +1577,7 @@
         <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1595,7 +1595,7 @@
         <v>2.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
@@ -1610,13 +1610,13 @@
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
         <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M5Xw3O3j</t>
+          <t>ADYaA6BG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,133 +1830,133 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
         <v>7</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8</v>
-      </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
         <v>34</v>
       </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
         <v>23</v>
       </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
         <v>67</v>
       </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -1965,19 +1965,19 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
         <v>251</v>
@@ -1986,188 +1986,6 @@
         <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ADYaA6BG</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>18/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>zyYw8Qbe</t>
+          <t>K4udGliF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,169 +738,169 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AX2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY2" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2NZV9nUr</t>
+          <t>W2Rn64T7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.1</v>
       </c>
-      <c r="I3" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.6</v>
-      </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
         <v>6.5</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.5</v>
-      </c>
       <c r="O3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.62</v>
       </c>
-      <c r="P3" t="n">
+      <c r="T3" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
       </c>
       <c r="AS3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB3" t="n">
         <v>401</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K4udGliF</t>
+          <t>nyeDPXV6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,92 +1092,92 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.25</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1189,49 +1189,49 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
         <v>201</v>
       </c>
-      <c r="AH4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
         <v>15</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AP4" t="n">
         <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1246,25 +1246,25 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
         <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>401</v>
+        <v>500</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W2Rn64T7</t>
+          <t>rNtoHigg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>1.42</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="K5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.91</v>
       </c>
-      <c r="L5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>81</v>
       </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
       <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR5" t="n">
         <v>41</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
         <v>34</v>
       </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC5" t="n">
         <v>81</v>
       </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="BD5" t="n">
         <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nyeDPXV6</t>
+          <t>ADYaA6BG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,536 +1456,172 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.83</v>
       </c>
-      <c r="L6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
         <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>rNtoHigg</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>18/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:45</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE B</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ceara</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ADYaA6BG</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>18/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -1314,7 +1314,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -762,13 +762,13 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -828,7 +828,7 @@
         <v>7.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -1111,34 +1111,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.88</v>
@@ -1153,16 +1153,16 @@
         <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1192,16 +1192,16 @@
         <v>7</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1210,7 +1210,7 @@
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,13 +750,13 @@
         <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -807,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -831,7 +831,7 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -873,10 +873,10 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W2Rn64T7</t>
+          <t>nyeDPXV6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,59 +910,59 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.25</v>
       </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -971,25 +971,25 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1001,49 +1001,49 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
         <v>41</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
         <v>2.2</v>
@@ -1055,34 +1055,34 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nyeDPXV6</t>
+          <t>rNtoHigg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="J4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
         <v>3.25</v>
       </c>
-      <c r="K4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="n">
         <v>26</v>
       </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>81</v>
       </c>
-      <c r="AG4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>41</v>
-      </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
         <v>51</v>
       </c>
-      <c r="AR4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rNtoHigg</t>
+          <t>ADYaA6BG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,354 +1274,172 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.73</v>
       </c>
-      <c r="R5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
         <v>34</v>
       </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
         <v>126</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>301</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ADYaA6BG</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>18/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -807,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -819,19 +819,19 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nyeDPXV6</t>
+          <t>W2Rn64T7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,59 +910,59 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -971,25 +971,25 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1001,49 +1001,49 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
         <v>13</v>
       </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="n">
         <v>34</v>
       </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.2</v>
@@ -1055,34 +1055,34 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rNtoHigg</t>
+          <t>nyeDPXV6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.4</v>
       </c>
-      <c r="H4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="S4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
         <v>12</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX4" t="n">
         <v>19</v>
       </c>
-      <c r="AH4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AY4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB4" t="n">
         <v>351</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADYaA6BG</t>
+          <t>rNtoHigg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,65 +1274,65 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
@@ -1341,105 +1341,287 @@
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>9</v>
       </c>
-      <c r="Z5" t="n">
-        <v>17</v>
-      </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI5" t="n">
         <v>21</v>
       </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
         <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR5" t="n">
         <v>41</v>
       </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>301</v>
       </c>
       <c r="BC5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ADYaA6BG</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
         <v>51</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -807,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -831,7 +831,7 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -944,13 +944,13 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -977,10 +977,10 @@
         <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1010,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -1019,7 +1019,7 @@
         <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1055,13 +1055,13 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>81</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K5" t="n">
         <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
@@ -1335,22 +1335,22 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -1362,25 +1362,25 @@
         <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
         <v>51</v>
@@ -1389,7 +1389,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN5" t="n">
         <v>3.4</v>
@@ -1401,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1419,16 +1419,16 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
         <v>151</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
         <v>2.63</v>
@@ -1526,13 +1526,13 @@
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>17</v>
@@ -1553,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1562,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,10 +947,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nyeDPXV6</t>
+          <t>rNtoHigg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
         <v>4</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA4" t="n">
         <v>12</v>
       </c>
-      <c r="Z4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>29</v>
-      </c>
       <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR4" t="n">
         <v>41</v>
       </c>
-      <c r="AC4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="n">
         <v>41</v>
       </c>
-      <c r="AM4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rNtoHigg</t>
+          <t>ADYaA6BG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,354 +1274,172 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.73</v>
       </c>
-      <c r="R5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
         <v>67</v>
       </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
         <v>34</v>
       </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
         <v>126</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>301</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ADYaA6BG</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>18/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,188 +1261,6 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ADYaA6BG</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>18/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>K4udGliF</t>
+          <t>hCSr7pE1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,157 +738,157 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.2</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.53</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>21</v>
       </c>
-      <c r="AF2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL2" t="n">
         <v>41</v>
       </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
       <c r="AM2" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA2" t="n">
         <v>81</v>
       </c>
-      <c r="AW2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>126</v>
-      </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W2Rn64T7</t>
+          <t>zyYw8Qbe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,169 +920,169 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.2</v>
       </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
         <v>6.5</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
         <v>10</v>
       </c>
-      <c r="Z3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6</v>
-      </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>29</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rNtoHigg</t>
+          <t>2NZV9nUr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,107 +1092,107 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
         <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>2.08</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AH4" t="n">
         <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1204,61 +1204,1335 @@
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW4" t="n">
         <v>7</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>8</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
       </c>
       <c r="AY4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>K4udGliF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Atl. Tucuman</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
         <v>41</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
         <v>126</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB5" t="n">
+        <v>401</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
         <v>151</v>
       </c>
-      <c r="BB4" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W2Rn64T7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Argentinos Jrs</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
         <v>301</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="AT6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
         <v>81</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>81</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>401</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nyeDPXV6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>rNtoHigg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:45</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>lbpiCSt4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fenix</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>M5Xw3O3j</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ADYaA6BG</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
